--- a/Course II/АД/xlsx/Подготовка к КР 23.11.2020.xlsx
+++ b/Course II/АД/xlsx/Подготовка к КР 23.11.2020.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgiydemo/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE8EE17-EAAD-C44E-BE11-F85721D5E6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24840" windowHeight="16940" activeTab="3" xr2:uid="{6208EB27-727F-4244-B333-825254E3E89D}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="24840" windowHeight="16935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Позиция 3" sheetId="1" r:id="rId1"/>
@@ -424,7 +418,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -554,33 +548,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -620,7 +614,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C007B3C9-F8BC-DE4A-996B-8F183B71443E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C007B3C9-F8BC-DE4A-996B-8F183B71443E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -664,7 +658,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384792BF-B897-EC47-899C-B4770CFAFE0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{384792BF-B897-EC47-899C-B4770CFAFE0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -708,7 +702,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC93A48-D704-834E-A94B-F0312BB39960}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEC93A48-D704-834E-A94B-F0312BB39960}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -757,7 +751,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD39DC0-F688-F74B-8360-EA80D744ACB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCD39DC0-F688-F74B-8360-EA80D744ACB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,44 +1076,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7B36A1-7D18-C94F-9125-0179491314A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1136,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -1146,63 +1140,63 @@
       <c r="C10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="15">
         <v>2</v>
       </c>
       <c r="E10" s="7">
         <v>-6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <f>(A10+1)/(C10^(A10+1)- B10^(A10+1))</f>
         <v>2.05761316872428E-3</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16">
         <f>A13*(C10^(A10+D10+1) -B10^(A10+D10+1))/(A10+D10+1) + E10</f>
         <v>42.600000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>1</v>
       </c>
@@ -1213,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>8</v>
       </c>
@@ -1224,18 +1218,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <f>(A27+1)/(C27^(A27+1) - B27^(A27+1))</f>
         <v>8.7890625E-3</v>
@@ -1249,30 +1243,30 @@
         <v>3.2727272727272729</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>1</v>
       </c>
@@ -1282,14 +1276,14 @@
       <c r="C40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>4</v>
       </c>
@@ -1299,42 +1293,42 @@
       <c r="C41" s="7">
         <v>1</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="15">
         <v>-0.5</v>
       </c>
       <c r="E41" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="22">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
         <f>(A41+1)/(C41^(A41+1)- B41^(A41+1))</f>
         <v>0.15151515151515152</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16">
         <f>A44*(E41^(A41+1) -D41^(A41+1))/(A41+1)</f>
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1353,59 +1347,60 @@
     <mergeCell ref="C42:C43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82AE9E3-3675-7D48-B96D-0D0040955563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScale="118" workbookViewId="0">
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.875" style="1"/>
     <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
@@ -1416,7 +1411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1432,16 +1427,16 @@
       <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <f>_xlfn.BINOM.DIST(D5-1, B5, B6, 1)</f>
         <v>1.6417591968495824E-3</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="20">
         <f>F6-F5</f>
         <v>0.9983562957939025</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1457,33 +1452,33 @@
       <c r="E6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <f>_xlfn.BINOM.DIST(D6, B5, B6, 1)</f>
         <v>0.99999805499075212</v>
       </c>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
@@ -1494,7 +1489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -1505,23 +1500,23 @@
       <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="12">
         <f>B5*B6^2</f>
         <v>37.5</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="11">
         <f>_xlfn.NORM.DIST(D5,B9, B10, 1)</f>
         <v>2.3388674905236322E-3</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="20">
         <f>F10-F9</f>
         <v>0.99765991827573997</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
@@ -1532,50 +1527,50 @@
       <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="13">
         <f>B5*B6*(1-B6)</f>
         <v>112.5</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="11">
         <f>_xlfn.NORM.DIST(D6, B9, B10, 1)</f>
         <v>0.99999878576626355</v>
       </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="20"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="7" t="s">
         <v>24</v>
       </c>
@@ -1586,7 +1581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
@@ -1602,16 +1597,16 @@
       <c r="E18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="11">
         <f>_xlfn.BINOM.DIST(D18-1, B18, B19, 1)</f>
         <v>0.92266940268745978</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="20">
         <f>F19-F18</f>
         <v>7.7330597312540217E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
@@ -1627,33 +1622,33 @@
       <c r="E19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="11">
         <f>_xlfn.BINOM.DIST(D19, B18, B19, 1)</f>
         <v>1</v>
       </c>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="7" t="s">
         <v>24</v>
       </c>
@@ -1664,7 +1659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -1675,23 +1670,23 @@
       <c r="C22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="12">
         <f>B18*B19^2</f>
         <v>115.52</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="11">
         <f>_xlfn.NORM.DIST(D18,B22, B23, 1)</f>
         <v>0.93190088352622757</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="20">
         <f>F23-F22</f>
         <v>6.8099116473771426E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -1702,119 +1697,119 @@
       <c r="C23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="13">
         <f>B18*B19*(1-B19)</f>
         <v>36.479999999999997</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="11">
         <f>_xlfn.NORM.DIST(D19, B22, B23, 1)</f>
         <v>0.999999999999999</v>
       </c>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G23" s="20"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="7">
         <v>400</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="17">
         <v>310</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="20">
         <f>_xlfn.BINOM.DIST(D31,B31,B32,0)</f>
         <v>2.2353768010763515E-2</v>
       </c>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="7">
         <v>0.8</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
@@ -1825,20 +1820,20 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="12">
         <f>B31*B32^2</f>
         <v>256.00000000000006</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="20">
         <f>_xlfn.NORM.DIST(D31,B35,B36,0)</f>
         <v>2.2831135673627736E-2</v>
       </c>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>30</v>
       </c>
@@ -1849,199 +1844,199 @@
       <c r="C36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="13">
         <f>B31*B32*(1-B32)</f>
         <v>63.999999999999986</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E36" s="17"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="7">
         <v>1000</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="17">
         <v>4</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="20">
         <f>_xlfn.BINOM.DIST(D45,B45,B46,0)</f>
         <v>4.7013427259424728E-2</v>
       </c>
-      <c r="G45" s="16"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="7">
         <v>1.5E-3</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="17">
         <f>B45*B46</f>
         <v>1.5</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="13">
         <f>B45*B46^2</f>
         <v>2.2500000000000003E-3</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="20">
         <f>_xlfn.POISSON.DIST(D45,B49,0)</f>
         <v>4.7066518156309439E-2</v>
       </c>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="12">
         <f>B45*B46*(1-B46)</f>
         <v>1.4977500000000001</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E50" s="17"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="8"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>4</v>
       </c>
@@ -2054,16 +2049,16 @@
       <c r="D58" s="7">
         <v>0</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="20">
         <f>_xlfn.BINOM.DIST(D59,B58,B59,1)</f>
         <v>0.64723190747106973</v>
       </c>
-      <c r="G58" s="16"/>
-    </row>
-    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>19</v>
       </c>
@@ -2076,118 +2071,77 @@
       <c r="D59" s="7">
         <v>3</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+      <c r="E59" s="17"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="17"/>
+      <c r="C61" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="8"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="17">
         <f>B58*B59</f>
         <v>3</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="13">
         <f>B58*B59^2</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="20">
         <f>_xlfn.POISSON.DIST(D59,B62,1)</f>
         <v>0.64723188878223126</v>
       </c>
-      <c r="G62" s="16"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="12">
         <f>B58*B59*(1-B59)</f>
         <v>2.9969999999999999</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:G59"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:G50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F35:G36"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:G46"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:B4"/>
@@ -2201,50 +2155,92 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="F35:G36"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:G46"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:G50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:G59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:G63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738A652E-3DB3-CE4B-A6B4-3526F7049AFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="20.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.875" style="2"/>
+    <col min="5" max="5" width="20.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2253,96 +2249,96 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>9.6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <f>_xlfn.NORM.DIST(D7,B7,B8,1)</f>
         <v>0.38542542189245066</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="21">
         <f>F8-F7</f>
         <v>0.2104628199169708</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>2.06</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>10.1</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <f>_xlfn.NORM.DIST(D8,B7,B8,1)</f>
         <v>0.59588824180942146</v>
       </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="93" x14ac:dyDescent="3.7">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2351,184 +2347,185 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="22">
         <v>0.22</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="9">
         <v>2</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <f>_xlfn.EXPON.DIST(D15,B15,1)</f>
         <v>0.35596357891685859</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="21">
         <f>F16-F15</f>
         <v>0.4719915572600909</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <v>8</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <f>_xlfn.EXPON.DIST(D16,B15,1)</f>
         <v>0.82795513617694949</v>
       </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" s="21"/>
+    </row>
+    <row r="19" spans="1:5" ht="93" x14ac:dyDescent="3.7">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>11.5</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="9">
         <v>14.6</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="21">
         <f>(D25-D24)/(B25-B24)</f>
         <v>0.88560885608856088</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>38.6</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="9">
         <f>B25</f>
         <v>38.6</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2644B9-AD0A-8F43-9648-6A08EC52A21B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="12.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.875" style="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2538,7 +2535,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>80</v>
       </c>
@@ -2552,7 +2549,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>81</v>
       </c>
@@ -2566,7 +2563,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>82</v>
       </c>
@@ -2578,8 +2575,8 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2592,8 +2589,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
       <c r="B22" s="7">
         <f>B19-B20</f>
         <v>76.599999999999994</v>
@@ -2607,22 +2604,22 @@
         <v>7.53007537736028</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2632,7 +2629,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>80</v>
       </c>
@@ -2646,7 +2643,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>81</v>
       </c>
@@ -2660,7 +2657,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>82</v>
       </c>
@@ -2672,8 +2669,8 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -2686,8 +2683,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
       <c r="B32" s="7">
         <f>2*B29+8*B30</f>
         <v>112</v>
@@ -2707,6 +2704,7 @@
     <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>